--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rb04013a7dded4ce1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rcc4a55284cd34469"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rcc4a55284cd34469"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R4bff637396534b2b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R4bff637396534b2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rdc44dc0e56a943ee"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rdc44dc0e56a943ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R4bde86b5e3df4d50"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,42 +28,42 @@
     <x:font>
       <x:b/>
       <x:sz val="16"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="155724"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="856404"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF155724"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF856404"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -76,25 +76,25 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="2E75B6"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="D4EDDA"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFF3CD"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="00FF00"/>
+        <x:fgColor rgb="FF2E75B6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFD4EDDA"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFF3CD"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF00FF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R4bde86b5e3df4d50"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R9fec93ebf0824a84"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R9fec93ebf0824a84"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rf1abe9a1e605466d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rf1abe9a1e605466d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Re779220704e04078"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Re779220704e04078"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R3b1ced280caa476d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R3b1ced280caa476d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rc159a613e64f45eb"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rc159a613e64f45eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rcee262174f774265"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rcee262174f774265"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Re207e61fd7a547d2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Re207e61fd7a547d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R29b932b5ce874d92"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R29b932b5ce874d92"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Recd575e024df43ea"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Recd575e024df43ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R3dcdc4cc2de94b64"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R3dcdc4cc2de94b64"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rbc1e3b1b9c53447f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rbc1e3b1b9c53447f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R11388c8f0ebe4761"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R11388c8f0ebe4761"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rdf44dafca812411b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rdf44dafca812411b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R99df63607ca44fd5"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R99df63607ca44fd5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R986abb06f4034c08"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R986abb06f4034c08"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rc0799cf7ecfa42c6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rc0799cf7ecfa42c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R4d376a8813f94bb9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R4d376a8813f94bb9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rdab5e6675af44587"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rdab5e6675af44587"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R2fd4e3faf8ce4f93"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R2fd4e3faf8ce4f93"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R733f12b9efdf48f8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R733f12b9efdf48f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R8e3370c3f6444061"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R8e3370c3f6444061"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Raebad58ef1834ceb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Raebad58ef1834ceb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Re815e599355548ef"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Re815e599355548ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R89a9687563be46e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R89a9687563be46e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R9a91864dc5ed47ef"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R9a91864dc5ed47ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R167baea61d0340bd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R167baea61d0340bd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Ra92fcabf0a8142a7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Ra92fcabf0a8142a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rcaf393e3778e49f7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rcaf393e3778e49f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rc50a639b089f49e0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rc50a639b089f49e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rc180542c9d594ce3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rc180542c9d594ce3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R7f898dc6639b45bf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R7f898dc6639b45bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R318df705ff21490a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R318df705ff21490a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R3a000e487f7c4140"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R3a000e487f7c4140"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R5a9173fe35ca4af8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R5a9173fe35ca4af8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R25e0ff60a4024499"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R25e0ff60a4024499"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rb19a74495e2e4cab"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rb19a74495e2e4cab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R7fee50fcdc5c4c1f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R7fee50fcdc5c4c1f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R064e8d012dfb4d74"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R064e8d012dfb4d74"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rbb14ad296e01460f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rbb14ad296e01460f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R11d78ad22f8b4ea4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/20_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R11d78ad22f8b4ea4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R6e8e098a511943f7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
